--- a/AOI/parameter.xlsx
+++ b/AOI/parameter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -423,5 +423,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>